--- a/packages/excel/bp.xlsx
+++ b/packages/excel/bp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7900"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7900"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,11 @@
   <definedNames>
     <definedName name="Address">main!$C$1</definedName>
     <definedName name="Code">main!$A$1</definedName>
-    <definedName name="DecisionInfo.Date">main!$D$1</definedName>
+    <definedName name="DecisionInfo.Date">main!$E$1</definedName>
+    <definedName name="DecisionInfo.No">main!$F$1</definedName>
+    <definedName name="Description">main!$G$1</definedName>
     <definedName name="Name">main!$B$1</definedName>
-    <definedName name="OfficialInfo">main!$D$1</definedName>
+    <definedName name="ParentCode">main!$D$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>BP000</t>
   </si>
@@ -106,6 +108,45 @@
   </si>
   <si>
     <t>Ngày thành lập</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Số quyết định</t>
+  </si>
+  <si>
+    <t>QĐ001</t>
+  </si>
+  <si>
+    <t>QĐ002</t>
+  </si>
+  <si>
+    <t>QĐ003</t>
+  </si>
+  <si>
+    <t>QĐ004</t>
+  </si>
+  <si>
+    <t>QĐ005</t>
+  </si>
+  <si>
+    <t>QĐ006</t>
+  </si>
+  <si>
+    <t>QĐ007</t>
+  </si>
+  <si>
+    <t>QĐ008</t>
+  </si>
+  <si>
+    <t>QĐ009</t>
+  </si>
+  <si>
+    <t>QĐ010</t>
+  </si>
+  <si>
+    <t>QĐ011</t>
   </si>
 </sst>
 </file>
@@ -424,164 +465,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="7" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1">
-        <f ca="1">DATE(1980+RAND()*20,1,1)</f>
-        <v>33970</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <f ca="1">DATE(1980+RAND()*20,1+RAND()*11,1+RAND()*28)</f>
+        <v>34206</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D12" ca="1" si="0">DATE(1980+RAND()*20,1,1)</f>
-        <v>35065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E12" ca="1" si="0">DATE(1980+RAND()*20,1+RAND()*11,1+RAND()*28)</f>
+        <v>36291</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>33970</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>35931</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>33970</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>34255</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>31413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>36343</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>31778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>32742</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>33604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>30432</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>35431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>31433</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>31048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>29872</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>29952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>33259</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>29952</v>
-      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>29471</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12">
+      <formula1>$A$2:$A$12</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/packages/excel/bp.xlsx
+++ b/packages/excel/bp.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7900"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Address">main!$C$1</definedName>
-    <definedName name="Code">main!$A$1</definedName>
-    <definedName name="DecisionInfo.Date">main!$E$1</definedName>
-    <definedName name="DecisionInfo.No">main!$F$1</definedName>
-    <definedName name="Description">main!$G$1</definedName>
-    <definedName name="Name">main!$B$1</definedName>
-    <definedName name="ParentCode">main!$D$1</definedName>
+    <definedName name="_id.Code">main!$A$1</definedName>
+    <definedName name="Address">main!$E$1</definedName>
+    <definedName name="DecisionInfo.Date">main!$G$1</definedName>
+    <definedName name="DecisionInfo.No">main!$H$1</definedName>
+    <definedName name="Description">main!$I$1</definedName>
+    <definedName name="Name.en">main!$D$1</definedName>
+    <definedName name="Name.value">main!$B$1</definedName>
+    <definedName name="Name.vn">main!$C$1</definedName>
+    <definedName name="ParentCode">main!$F$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>BP000</t>
   </si>
@@ -147,6 +149,39 @@
   </si>
   <si>
     <t>QĐ011</t>
+  </si>
+  <si>
+    <t>Total Company</t>
+  </si>
+  <si>
+    <t>Room accounting</t>
+  </si>
+  <si>
+    <t>Room director</t>
+  </si>
+  <si>
+    <t>Shop 1</t>
+  </si>
+  <si>
+    <t>Shop 2</t>
+  </si>
+  <si>
+    <t>Shop 3</t>
+  </si>
+  <si>
+    <t>Window Number 4</t>
+  </si>
+  <si>
+    <t>Shop 5</t>
+  </si>
+  <si>
+    <t>Shop 6</t>
+  </si>
+  <si>
+    <t>Shop 7</t>
+  </si>
+  <si>
+    <t>Shop 8</t>
   </si>
 </sst>
 </file>
@@ -465,250 +500,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="7" width="18.36328125" customWidth="1"/>
+    <col min="2" max="4" width="24.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="9" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
+      <c r="C2" t="str">
+        <f>B2</f>
+        <v>Tổng công ty</v>
+      </c>
       <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <f ca="1">DATE(1980+RAND()*20,1+RAND()*11,1+RAND()*28)</f>
-        <v>34206</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>31557</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C12" si="0">B3</f>
+        <v>Phòng kế toán</v>
+      </c>
       <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E12" ca="1" si="0">DATE(1980+RAND()*20,1+RAND()*11,1+RAND()*28)</f>
-        <v>36291</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G12" ca="1" si="1">DATE(1980+RAND()*20,1+RAND()*11,1+RAND()*28)</f>
+        <v>29546</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Phòng giám đốc</v>
+      </c>
       <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>35931</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>34983</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Cửa hàng số 1</v>
+      </c>
       <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>34255</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>31819</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Cửa hàng số 2</v>
+      </c>
       <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>36343</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>35238</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Cửa hàng số 3</v>
+      </c>
       <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>32742</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>29381</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Cửa hàng số 4</v>
+      </c>
       <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>30432</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>35017</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Cửa hàng số 5</v>
+      </c>
       <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>31433</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>34857</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Cửa hàng số 6</v>
+      </c>
       <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>29872</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>33009</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Cửa hàng số 7</v>
+      </c>
       <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>33259</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>33027</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Cửa hàng số 8</v>
+      </c>
       <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>29471</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>30151</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>

--- a/packages/excel/bp.xlsx
+++ b/packages/excel/bp.xlsx
@@ -17,9 +17,11 @@
   <definedNames>
     <definedName name="_id.Code">main!$A$1</definedName>
     <definedName name="Address">main!$E$1</definedName>
+    <definedName name="DecisionInfo.Approver.Code">main!$I$1</definedName>
     <definedName name="DecisionInfo.Date">main!$G$1</definedName>
     <definedName name="DecisionInfo.No">main!$H$1</definedName>
-    <definedName name="Description">main!$I$1</definedName>
+    <definedName name="Description">main!$J$1</definedName>
+    <definedName name="DesicionInfo">main!$K$1</definedName>
     <definedName name="Name.en">main!$D$1</definedName>
     <definedName name="Name.value">main!$B$1</definedName>
     <definedName name="Name.vn">main!$C$1</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>BP000</t>
   </si>
@@ -182,6 +184,42 @@
   </si>
   <si>
     <t>Shop 8</t>
+  </si>
+  <si>
+    <t>Người ký</t>
+  </si>
+  <si>
+    <t>NV001</t>
+  </si>
+  <si>
+    <t>NV002</t>
+  </si>
+  <si>
+    <t>NV003</t>
+  </si>
+  <si>
+    <t>NV004</t>
+  </si>
+  <si>
+    <t>NV005</t>
+  </si>
+  <si>
+    <t>NV006</t>
+  </si>
+  <si>
+    <t>NV007</t>
+  </si>
+  <si>
+    <t>NV008</t>
+  </si>
+  <si>
+    <t>NV009</t>
+  </si>
+  <si>
+    <t>NV010</t>
+  </si>
+  <si>
+    <t>NV011</t>
   </si>
 </sst>
 </file>
@@ -500,22 +538,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="4" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18.453125" customWidth="1"/>
-    <col min="7" max="9" width="18.36328125" customWidth="1"/>
+    <col min="7" max="10" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -529,10 +569,13 @@
         <v>26</v>
       </c>
       <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -551,14 +594,17 @@
       </c>
       <c r="G2" s="1">
         <f ca="1">DATE(1980+RAND()*20,1+RAND()*11,1+RAND()*28)</f>
-        <v>31557</v>
+        <v>30773</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -577,14 +623,17 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G12" ca="1" si="1">DATE(1980+RAND()*20,1+RAND()*11,1+RAND()*28)</f>
-        <v>29546</v>
+        <v>32041</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -603,14 +652,17 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34983</v>
+        <v>32945</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -629,14 +681,17 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31819</v>
+        <v>33031</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -655,14 +710,17 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35238</v>
+        <v>32654</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -681,14 +739,17 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29381</v>
+        <v>32041</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -707,14 +768,17 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35017</v>
+        <v>30916</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -733,14 +797,17 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34857</v>
+        <v>30090</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -759,14 +826,17 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33009</v>
+        <v>30006</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -785,14 +855,17 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33027</v>
+        <v>29305</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -811,12 +884,15 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30151</v>
+        <v>30275</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
